--- a/JPADSandBox_v2/out/CS300_AVL/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300_AVL/WEIGHTS/Weights.xlsx
@@ -43,15 +43,18 @@
     <t>kg</t>
   </si>
   <si>
+    <t>Max Zero Fuel Mass Calibration Factor</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Maximum Take-Off Mass</t>
   </si>
   <si>
-    <t>Take-Off Mass</t>
-  </si>
-  <si>
     <t>Maximum Landing Mass</t>
   </si>
   <si>
@@ -67,10 +70,10 @@
     <t>Zero Fuel Mass</t>
   </si>
   <si>
-    <t>Maximum Passengers Mass</t>
-  </si>
-  <si>
-    <t>Actual Passengers Mass</t>
+    <t>Max Payload</t>
+  </si>
+  <si>
+    <t>Design Payload</t>
   </si>
   <si>
     <t>Operating Empty Mass</t>
@@ -106,46 +109,43 @@
     <t>Calibration Factor</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Estimated Mass (calibrated)</t>
   </si>
   <si>
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
     <t>NICOLAI_1984</t>
   </si>
   <si>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
     <t>TORENBEEK_1976</t>
   </si>
   <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
     <t>RAYMER</t>
   </si>
   <si>
-    <t>KROO</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>NICOLAI_2013</t>
+  </si>
+  <si>
     <t>HOWE</t>
-  </si>
-  <si>
-    <t>NICOLAI_2013</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -331,50 +331,50 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>66328.62462145224</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>66328.62462145224</v>
+        <v>62876.30628779709</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>59695.76215930701</v>
+        <v>56588.675659017375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -385,134 +385,134 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>16200.0</v>
+        <v>11633.190117226004</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>50128.62462145224</v>
+        <v>54778.116170571084</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>50128.62462145224</v>
+        <v>51243.116170571084</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>13650.0</v>
+        <v>17035.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>13650.0</v>
+        <v>13500.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>36478.62462145225</v>
+        <v>37743.11617057109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>35764.38526887023</v>
+        <v>36969.622526539715</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>331.6666100820086</v>
+        <v>314.40635303136366</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>382.5727425</v>
+        <v>459.08729100000005</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1946.1</v>
+        <v>2020.9499999999998</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>34149.951878952255</v>
+        <v>35263.0788795711</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>19659.367343180827</v>
+        <v>20602.655422083808</v>
       </c>
     </row>
   </sheetData>
@@ -543,40 +543,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6633.3322016401735</v>
+        <v>6288.127060627273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8052.666666666666</v>
+        <v>8132.166666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>21.397005635803147</v>
+        <v>29.325737032028755</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -590,12 +590,12 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>8052.666666666666</v>
+        <v>8132.166666666666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>10369.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D8" t="n">
-        <v>56.3166095832821</v>
+        <v>1.7155019027552412</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>10801.0</v>
+        <v>21031.0</v>
       </c>
       <c r="D9" t="n">
-        <v>62.82917350844151</v>
+        <v>234.45570989944426</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7891.0</v>
+        <v>14190.0</v>
       </c>
       <c r="D10" t="n">
-        <v>18.959819290353852</v>
+        <v>125.66337898688195</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6590.0</v>
+        <v>10196.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6532493824062988</v>
+        <v>62.14685075054604</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>6269.0</v>
+        <v>7092.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.49244618790669</v>
+        <v>12.783980533824291</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>14928.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D13" t="n">
-        <v>125.04526452495277</v>
+        <v>25.49046677839925</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>6396.0</v>
+        <v>10802.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.577872996945476</v>
+        <v>71.78406059311477</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>21030.0</v>
+        <v>6416.0</v>
       </c>
       <c r="D15" t="n">
-        <v>217.03522996782937</v>
+        <v>2.0335616335330875</v>
       </c>
     </row>
   </sheetData>
@@ -743,40 +743,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>7031.332133738582</v>
+        <v>6665.414684264909</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>6966.5</v>
+        <v>7112.75</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9220462425249107</v>
+        <v>6.711290098590839</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -790,12 +790,12 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>6966.499999999999</v>
+        <v>7112.749999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -805,58 +805,58 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6016.0</v>
+        <v>7483.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-14.4401105569554</v>
+        <v>12.266083274086032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>8295.0</v>
+        <v>6559.0</v>
       </c>
       <c r="D9" t="n">
-        <v>17.971955274277754</v>
+        <v>-1.5965200862314213</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7391.0</v>
+        <v>6082.0</v>
       </c>
       <c r="D10" t="n">
-        <v>5.115216568075573</v>
+        <v>-8.752864028732963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6164.0</v>
+        <v>8327.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-12.33524625549752</v>
+        <v>24.928461235241798</v>
       </c>
     </row>
   </sheetData>
@@ -887,40 +887,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>762.8332031886198</v>
+        <v>723.1346119721363</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>799.75</v>
+        <v>795.375</v>
       </c>
       <c r="D3" t="n">
-        <v>4.839432349964447</v>
+        <v>9.989894942360628</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -934,12 +934,12 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>799.7499999999999</v>
+        <v>795.3749999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -949,63 +949,63 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>52.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-93.18330668059</v>
+        <v>43.81831304737396</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>520.0</v>
+        <v>700.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-31.833066805899946</v>
+        <v>-3.199212371959834</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>738.0</v>
+        <v>394.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.255390966834919</v>
+        <v>-45.51498524936025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1040.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D11" t="n">
-        <v>36.333866388200114</v>
+        <v>95.67587784810976</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1014,49 +1014,49 @@
         <v>1523.0</v>
       </c>
       <c r="D12" t="n">
-        <v>99.65046010502766</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>700.0</v>
+        <v>737.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.236820700249924</v>
+        <v>1.9174006883794317</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1415.0</v>
+        <v>52.0</v>
       </c>
       <c r="D14" t="n">
-        <v>85.49271244163765</v>
+        <v>-92.8090843476313</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>410.0</v>
+        <v>502.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-46.25299498157496</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
   </sheetData>
@@ -1087,40 +1087,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>762.8332031886198</v>
+        <v>723.1346119721363</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>674.4285714285713</v>
+        <v>672.4285714285713</v>
       </c>
       <c r="D3" t="n">
-        <v>-11.58898582160815</v>
+        <v>-7.011978088737747</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1134,12 +1134,12 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>674.4285714285713</v>
+        <v>672.4285714285713</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1149,49 +1149,49 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>124.0</v>
+        <v>749.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-83.74480823833</v>
+        <v>3.5768427620029772</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>184.0</v>
+        <v>502.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-75.87939286977998</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>494.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-35.24141346560495</v>
+        <v>58.338431191579986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1200,49 +1200,49 @@
         <v>1523.0</v>
       </c>
       <c r="D11" t="n">
-        <v>99.65046010502766</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>749.0</v>
+        <v>485.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.8133981492674176</v>
+        <v>-32.93088285771503</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>502.0</v>
+        <v>124.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-34.192691416464946</v>
+        <v>-82.85243190589003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1145.0</v>
+        <v>179.0</v>
       </c>
       <c r="D14" t="n">
-        <v>50.09834328316262</v>
+        <v>-75.24665573511544</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1260.333118311633</v>
+        <v>1194.7441415191815</v>
       </c>
     </row>
     <row r="3">
@@ -1298,15 +1298,15 @@
         <v>1390.6666666666665</v>
       </c>
       <c r="D3" t="n">
-        <v>10.341198407102956</v>
+        <v>16.398701474138132</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1335,7 +1335,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1345,21 +1345,21 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>694.0</v>
+        <v>705.0</v>
       </c>
       <c r="D10" t="n">
-        <v>10.129614134030902</v>
+        <v>18.016900104411395</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1368,26 +1368,26 @@
         <v>687.0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.01879670040235</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>705.0</v>
+        <v>694.0</v>
       </c>
       <c r="D12" t="n">
-        <v>11.875184386875773</v>
+        <v>16.17550166306597</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1417,21 +1417,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>694.0</v>
+        <v>705.0</v>
       </c>
       <c r="D17" t="n">
-        <v>10.129614134030902</v>
+        <v>18.016900104411395</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1440,26 +1440,26 @@
         <v>687.0</v>
       </c>
       <c r="D18" t="n">
-        <v>9.01879670040235</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>705.0</v>
+        <v>694.0</v>
       </c>
       <c r="D19" t="n">
-        <v>11.875184386875773</v>
+        <v>16.17550166306597</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5505.665727361344</v>
+        <v>5219.145460320637</v>
       </c>
     </row>
     <row r="3">
@@ -1535,15 +1535,15 @@
         <v>6451.333333333332</v>
       </c>
       <c r="D3" t="n">
-        <v>17.176262650170212</v>
+        <v>23.60899657579186</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1572,7 +1572,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1582,7 +1582,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1591,30 +1591,30 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2954.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.307640757033026</v>
+        <v>32.51211434093882</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3458.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D12" t="n">
-        <v>25.616053398043398</v>
+        <v>13.19860779732021</v>
       </c>
     </row>
     <row r="13">
@@ -1628,12 +1628,12 @@
         <v>3265.0</v>
       </c>
       <c r="D13" t="n">
-        <v>18.605093795434268</v>
+        <v>25.116267589116617</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1654,7 +1654,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1663,30 +1663,30 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>2954.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D18" t="n">
-        <v>7.307640757033026</v>
+        <v>32.51211434093882</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>3458.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D19" t="n">
-        <v>25.616053398043398</v>
+        <v>13.19860779732021</v>
       </c>
     </row>
     <row r="20">
@@ -1700,12 +1700,12 @@
         <v>3265.0</v>
       </c>
       <c r="D20" t="n">
-        <v>18.605093795434268</v>
+        <v>25.116267589116617</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1747,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -1758,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2719.6662026724707</v>
+        <v>2578.132094857182</v>
       </c>
     </row>
     <row r="3">
@@ -1769,18 +1769,18 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1775.3554384189297</v>
+        <v>2499.2685173219097</v>
       </c>
       <c r="D3" t="n">
-        <v>-34.72156852652055</v>
+        <v>-3.0589424681764017</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1794,12 +1794,12 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1775.3554384189295</v>
+        <v>2499.2685173219093</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1814,16 +1814,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1775.3554384189297</v>
+        <v>2499.2685173219097</v>
       </c>
       <c r="D9" t="n">
-        <v>-34.72156852652054</v>
+        <v>-3.0589424681764026</v>
       </c>
     </row>
     <row r="10">
@@ -1833,13 +1833,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>211.6784445103936</v>
+        <v>386.729549170154</v>
       </c>
     </row>
     <row r="12">
@@ -1849,13 +1849,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1563.6769939085364</v>
+        <v>2112.5389681517563</v>
       </c>
     </row>
   </sheetData>
@@ -1886,18 +1886,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>9021.331794230635</v>
+        <v>8551.852802453091</v>
       </c>
     </row>
     <row r="3">
@@ -1908,10 +1908,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8039.251202438105</v>
+        <v>8209.090124153976</v>
       </c>
       <c r="D3" t="n">
-        <v>-10.886204101489705</v>
+        <v>-4.00805166104818</v>
       </c>
     </row>
     <row r="4">
@@ -1922,12 +1922,12 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>8039.251202438106</v>
+        <v>8209.090124153974</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1948,15 +1948,15 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8039.251202438106</v>
+        <v>8209.090124153976</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.886204101489692</v>
+        <v>-4.00805166104815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1972,15 +1972,15 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>322.1932175083158</v>
+        <v>329.5722550152342</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1994,12 +1994,12 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>322.19321750831574</v>
+        <v>329.57225501523413</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2020,10 +2020,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2058,15 +2058,15 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1012.6785076215733</v>
+        <v>1030.8432141307385</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>1.0</v>
@@ -2080,12 +2080,12 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>1012.6785076215732</v>
+        <v>1030.8432141307383</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2101,15 +2101,15 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>512.3197391085262</v>
+        <v>528.9794736539732</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
@@ -2123,12 +2123,12 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>512.319739108526</v>
+        <v>528.9794736539731</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -2149,10 +2149,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
         <v>1.0</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -2187,15 +2187,15 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>805.6976154251354</v>
+        <v>777.495132217799</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
         <v>1.0</v>
@@ -2209,12 +2209,12 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>805.6976154251353</v>
+        <v>777.4951322177989</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -2230,15 +2230,15 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>3137.2981652264225</v>
+        <v>3293.1360915880978</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
         <v>1.0</v>
@@ -2252,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>3137.298165226422</v>
+        <v>3293.1360915880973</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/CS300_AVL/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300_AVL/WEIGHTS/Weights.xlsx
@@ -115,18 +115,21 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
     <t>SADRAEY</t>
   </si>
   <si>
-    <t>JENKINSON</t>
+    <t>NICOLAI_1984</t>
   </si>
   <si>
     <t>ROSKAM</t>
   </si>
   <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
     <t>KROO</t>
   </si>
   <si>
@@ -134,9 +137,6 @@
   </si>
   <si>
     <t>TORENBEEK_1976</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6396.0</v>
+        <v>6416.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.7155019027552412</v>
+        <v>2.0335616335330875</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>14190.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D10" t="n">
-        <v>125.66337898688195</v>
+        <v>1.7155019027552412</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>7092.0</v>
+        <v>14190.0</v>
       </c>
       <c r="D12" t="n">
-        <v>12.783980533824291</v>
+        <v>125.66337898688195</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>7891.0</v>
+        <v>7092.0</v>
       </c>
       <c r="D13" t="n">
-        <v>25.49046677839925</v>
+        <v>12.783980533824291</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>10802.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D14" t="n">
-        <v>71.78406059311477</v>
+        <v>25.49046677839925</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>6416.0</v>
+        <v>10802.0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.0335616335330875</v>
+        <v>71.78406059311477</v>
       </c>
     </row>
   </sheetData>
@@ -805,16 +805,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7483.0</v>
+        <v>8327.0</v>
       </c>
       <c r="D8" t="n">
-        <v>12.266083274086032</v>
+        <v>24.928461235241798</v>
       </c>
     </row>
     <row r="9">
@@ -839,24 +839,24 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6082.0</v>
+        <v>7483.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.752864028732963</v>
+        <v>12.266083274086032</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>8327.0</v>
+        <v>6082.0</v>
       </c>
       <c r="D11" t="n">
-        <v>24.928461235241798</v>
+        <v>-8.752864028732963</v>
       </c>
     </row>
   </sheetData>
@@ -955,66 +955,66 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1040.0</v>
+        <v>502.0</v>
       </c>
       <c r="D8" t="n">
-        <v>43.81831304737396</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>700.0</v>
+        <v>394.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.199212371959834</v>
+        <v>-45.51498524936025</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>394.0</v>
+        <v>700.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-45.51498524936025</v>
+        <v>-3.199212371959834</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1415.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D11" t="n">
-        <v>95.67587784810976</v>
+        <v>43.81831304737396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1523.0</v>
+        <v>737.0</v>
       </c>
       <c r="D12" t="n">
-        <v>110.61085651072167</v>
+        <v>1.9174006883794317</v>
       </c>
     </row>
     <row r="13">
@@ -1025,24 +1025,24 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>737.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.9174006883794317</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>52.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-92.8090843476313</v>
+        <v>95.67587784810976</v>
       </c>
     </row>
     <row r="15">
@@ -1053,10 +1053,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>502.0</v>
+        <v>52.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-30.58000658674834</v>
+        <v>-92.8090843476313</v>
       </c>
     </row>
   </sheetData>
@@ -1155,10 +1155,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>749.0</v>
+        <v>179.0</v>
       </c>
       <c r="D8" t="n">
-        <v>3.5768427620029772</v>
+        <v>-75.24665573511544</v>
       </c>
     </row>
     <row r="9">
@@ -1177,21 +1177,21 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1145.0</v>
+        <v>749.0</v>
       </c>
       <c r="D10" t="n">
-        <v>58.338431191579986</v>
+        <v>3.5768427620029772</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1219,16 +1219,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>124.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-82.85243190589003</v>
+        <v>58.338431191579986</v>
       </c>
     </row>
     <row r="14">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>179.0</v>
+        <v>124.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-75.24665573511544</v>
+        <v>-82.85243190589003</v>
       </c>
     </row>
   </sheetData>
@@ -1345,44 +1345,44 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>705.0</v>
+        <v>694.0</v>
       </c>
       <c r="D10" t="n">
-        <v>18.016900104411395</v>
+        <v>16.17550166306597</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D11" t="n">
-        <v>15.003702654937063</v>
+        <v>18.016900104411395</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>694.0</v>
+        <v>687.0</v>
       </c>
       <c r="D12" t="n">
-        <v>16.17550166306597</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="13">
@@ -1417,44 +1417,44 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>705.0</v>
+        <v>694.0</v>
       </c>
       <c r="D17" t="n">
-        <v>18.016900104411395</v>
+        <v>16.17550166306597</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D18" t="n">
-        <v>15.003702654937063</v>
+        <v>18.016900104411395</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>694.0</v>
+        <v>687.0</v>
       </c>
       <c r="D19" t="n">
-        <v>16.17550166306597</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="20">
@@ -1591,16 +1591,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3458.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D11" t="n">
-        <v>32.51211434093882</v>
+        <v>25.116267589116617</v>
       </c>
     </row>
     <row r="12">
@@ -1611,24 +1611,24 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2954.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D12" t="n">
-        <v>13.19860779732021</v>
+        <v>32.51211434093882</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D13" t="n">
-        <v>25.116267589116617</v>
+        <v>13.19860779732021</v>
       </c>
     </row>
     <row r="14">
@@ -1663,16 +1663,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3458.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D18" t="n">
-        <v>32.51211434093882</v>
+        <v>25.116267589116617</v>
       </c>
     </row>
     <row r="19">
@@ -1683,24 +1683,24 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>2954.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D19" t="n">
-        <v>13.19860779732021</v>
+        <v>32.51211434093882</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D20" t="n">
-        <v>25.116267589116617</v>
+        <v>13.19860779732021</v>
       </c>
     </row>
     <row r="21">
@@ -1814,7 +1814,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300_AVL/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300_AVL/WEIGHTS/Weights.xlsx
@@ -115,37 +115,37 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
     <t>RAYMER</t>
   </si>
   <si>
     <t>JENKINSON</t>
   </si>
   <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>KROO</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>HOWE</t>
+  </si>
+  <si>
     <t>NICOLAI_2013</t>
-  </si>
-  <si>
-    <t>HOWE</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6416.0</v>
+        <v>10802.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2.0335616335330875</v>
+        <v>71.78406059311477</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>21031.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D9" t="n">
-        <v>234.45570989944426</v>
+        <v>25.49046677839925</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6396.0</v>
+        <v>7092.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.7155019027552412</v>
+        <v>12.783980533824291</v>
       </c>
     </row>
     <row r="11">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>7092.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D13" t="n">
-        <v>12.783980533824291</v>
+        <v>1.7155019027552412</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>7891.0</v>
+        <v>6416.0</v>
       </c>
       <c r="D14" t="n">
-        <v>25.49046677839925</v>
+        <v>2.0335616335330875</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>10802.0</v>
+        <v>21031.0</v>
       </c>
       <c r="D15" t="n">
-        <v>71.78406059311477</v>
+        <v>234.45570989944426</v>
       </c>
     </row>
   </sheetData>
@@ -805,44 +805,44 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8327.0</v>
+        <v>6082.0</v>
       </c>
       <c r="D8" t="n">
-        <v>24.928461235241798</v>
+        <v>-8.752864028732963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6559.0</v>
+        <v>7483.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.5965200862314213</v>
+        <v>12.266083274086032</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7483.0</v>
+        <v>6559.0</v>
       </c>
       <c r="D10" t="n">
-        <v>12.266083274086032</v>
+        <v>-1.5965200862314213</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6082.0</v>
+        <v>8327.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.752864028732963</v>
+        <v>24.928461235241798</v>
       </c>
     </row>
   </sheetData>
@@ -949,100 +949,100 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>502.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-30.58000658674834</v>
+        <v>95.67587784810976</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>394.0</v>
+        <v>52.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-45.51498524936025</v>
+        <v>-92.8090843476313</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>700.0</v>
+        <v>737.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.199212371959834</v>
+        <v>1.9174006883794317</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1040.0</v>
+        <v>394.0</v>
       </c>
       <c r="D11" t="n">
-        <v>43.81831304737396</v>
+        <v>-45.51498524936025</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>737.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.9174006883794317</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1523.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.61085651072167</v>
+        <v>43.81831304737396</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1415.0</v>
+        <v>502.0</v>
       </c>
       <c r="D14" t="n">
-        <v>95.67587784810976</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
     <row r="15">
@@ -1053,10 +1053,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>52.0</v>
+        <v>700.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-92.8090843476313</v>
+        <v>-3.199212371959834</v>
       </c>
     </row>
   </sheetData>
@@ -1149,30 +1149,30 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>179.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-75.24665573511544</v>
+        <v>58.338431191579986</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>502.0</v>
+        <v>124.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.58000658674834</v>
+        <v>-82.85243190589003</v>
       </c>
     </row>
     <row r="10">
@@ -1183,10 +1183,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>749.0</v>
+        <v>485.0</v>
       </c>
       <c r="D10" t="n">
-        <v>3.5768427620029772</v>
+        <v>-32.93088285771503</v>
       </c>
     </row>
     <row r="11">
@@ -1211,24 +1211,24 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>485.0</v>
+        <v>749.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-32.93088285771503</v>
+        <v>3.5768427620029772</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1145.0</v>
+        <v>179.0</v>
       </c>
       <c r="D13" t="n">
-        <v>58.338431191579986</v>
+        <v>-75.24665573511544</v>
       </c>
     </row>
     <row r="14">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>124.0</v>
+        <v>502.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-82.85243190589003</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
   </sheetData>
@@ -1345,44 +1345,44 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>694.0</v>
+        <v>687.0</v>
       </c>
       <c r="D10" t="n">
-        <v>16.17550166306597</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>705.0</v>
+        <v>694.0</v>
       </c>
       <c r="D11" t="n">
-        <v>18.016900104411395</v>
+        <v>16.17550166306597</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D12" t="n">
-        <v>15.003702654937063</v>
+        <v>18.016900104411395</v>
       </c>
     </row>
     <row r="13">
@@ -1417,44 +1417,44 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>694.0</v>
+        <v>687.0</v>
       </c>
       <c r="D17" t="n">
-        <v>16.17550166306597</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>705.0</v>
+        <v>694.0</v>
       </c>
       <c r="D18" t="n">
-        <v>18.016900104411395</v>
+        <v>16.17550166306597</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D19" t="n">
-        <v>15.003702654937063</v>
+        <v>18.016900104411395</v>
       </c>
     </row>
     <row r="20">
@@ -1591,21 +1591,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D11" t="n">
-        <v>25.116267589116617</v>
+        <v>13.19860779732021</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1619,16 +1619,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D13" t="n">
-        <v>13.19860779732021</v>
+        <v>25.116267589116617</v>
       </c>
     </row>
     <row r="14">
@@ -1663,21 +1663,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D18" t="n">
-        <v>25.116267589116617</v>
+        <v>13.19860779732021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1691,16 +1691,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D20" t="n">
-        <v>13.19860779732021</v>
+        <v>25.116267589116617</v>
       </c>
     </row>
     <row r="21">
@@ -1814,7 +1814,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300_AVL/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300_AVL/WEIGHTS/Weights.xlsx
@@ -115,37 +115,37 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
     <t>TORENBEEK_1976</t>
   </si>
   <si>
     <t>TORENBEEK_2013</t>
   </si>
   <si>
-    <t>KROO</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>NICOLAI_2013</t>
+  </si>
+  <si>
     <t>HOWE</t>
-  </si>
-  <si>
-    <t>NICOLAI_2013</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>10802.0</v>
+        <v>14190.0</v>
       </c>
       <c r="D8" t="n">
-        <v>71.78406059311477</v>
+        <v>125.66337898688195</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>7891.0</v>
+        <v>10196.0</v>
       </c>
       <c r="D9" t="n">
-        <v>25.49046677839925</v>
+        <v>62.14685075054604</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7092.0</v>
+        <v>6416.0</v>
       </c>
       <c r="D10" t="n">
-        <v>12.783980533824291</v>
+        <v>2.0335616335330875</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>10196.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D11" t="n">
-        <v>62.14685075054604</v>
+        <v>1.7155019027552412</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>14190.0</v>
+        <v>21031.0</v>
       </c>
       <c r="D12" t="n">
-        <v>125.66337898688195</v>
+        <v>234.45570989944426</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>6396.0</v>
+        <v>7092.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.7155019027552412</v>
+        <v>12.783980533824291</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>6416.0</v>
+        <v>10802.0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.0335616335330875</v>
+        <v>71.78406059311477</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>21031.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D15" t="n">
-        <v>234.45570989944426</v>
+        <v>25.49046677839925</v>
       </c>
     </row>
   </sheetData>
@@ -805,21 +805,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6082.0</v>
+        <v>8327.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.752864028732963</v>
+        <v>24.928461235241798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -847,16 +847,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>8327.0</v>
+        <v>6082.0</v>
       </c>
       <c r="D11" t="n">
-        <v>24.928461235241798</v>
+        <v>-8.752864028732963</v>
       </c>
     </row>
   </sheetData>
@@ -955,10 +955,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1415.0</v>
+        <v>394.0</v>
       </c>
       <c r="D8" t="n">
-        <v>95.67587784810976</v>
+        <v>-45.51498524936025</v>
       </c>
     </row>
     <row r="9">
@@ -969,10 +969,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>52.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-92.8090843476313</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
     <row r="10">
@@ -983,52 +983,52 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>737.0</v>
+        <v>502.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.9174006883794317</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>394.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-45.51498524936025</v>
+        <v>43.81831304737396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1523.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D12" t="n">
-        <v>110.61085651072167</v>
+        <v>95.67587784810976</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1040.0</v>
+        <v>700.0</v>
       </c>
       <c r="D13" t="n">
-        <v>43.81831304737396</v>
+        <v>-3.199212371959834</v>
       </c>
     </row>
     <row r="14">
@@ -1039,24 +1039,24 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>502.0</v>
+        <v>52.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.58000658674834</v>
+        <v>-92.8090843476313</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>700.0</v>
+        <v>737.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.199212371959834</v>
+        <v>1.9174006883794317</v>
       </c>
     </row>
   </sheetData>
@@ -1149,72 +1149,72 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1145.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D8" t="n">
-        <v>58.338431191579986</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>124.0</v>
+        <v>179.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-82.85243190589003</v>
+        <v>-75.24665573511544</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>485.0</v>
+        <v>749.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-32.93088285771503</v>
+        <v>3.5768427620029772</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1523.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D11" t="n">
-        <v>110.61085651072167</v>
+        <v>58.338431191579986</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>749.0</v>
+        <v>502.0</v>
       </c>
       <c r="D12" t="n">
-        <v>3.5768427620029772</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
     <row r="13">
@@ -1225,24 +1225,24 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>179.0</v>
+        <v>124.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-75.24665573511544</v>
+        <v>-82.85243190589003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>502.0</v>
+        <v>485.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.58000658674834</v>
+        <v>-32.93088285771503</v>
       </c>
     </row>
   </sheetData>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1591,44 +1591,44 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D11" t="n">
-        <v>13.19860779732021</v>
+        <v>25.116267589116617</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3458.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D12" t="n">
-        <v>32.51211434093882</v>
+        <v>13.19860779732021</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3265.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D13" t="n">
-        <v>25.116267589116617</v>
+        <v>32.51211434093882</v>
       </c>
     </row>
     <row r="14">
@@ -1663,44 +1663,44 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D18" t="n">
-        <v>13.19860779732021</v>
+        <v>25.116267589116617</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>3458.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D19" t="n">
-        <v>32.51211434093882</v>
+        <v>13.19860779732021</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>3265.0</v>
+        <v>3458.0</v>
       </c>
       <c r="D20" t="n">
-        <v>25.116267589116617</v>
+        <v>32.51211434093882</v>
       </c>
     </row>
     <row r="21">
@@ -1814,7 +1814,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300_AVL/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300_AVL/WEIGHTS/Weights.xlsx
@@ -115,37 +115,37 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>TORENBEEK_1976</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>JENKINSON</t>
+  </si>
+  <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
     <t>ROSKAM</t>
   </si>
   <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
-  </si>
-  <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>KROO</t>
-  </si>
-  <si>
-    <t>TORENBEEK_1976</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
     <t>TORENBEEK_1982</t>
   </si>
   <si>
+    <t>HOWE</t>
+  </si>
+  <si>
     <t>NICOLAI_2013</t>
-  </si>
-  <si>
-    <t>HOWE</t>
   </si>
   <si>
     <t>Total Reference Mass</t>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>14190.0</v>
+        <v>10802.0</v>
       </c>
       <c r="D8" t="n">
-        <v>125.66337898688195</v>
+        <v>71.78406059311477</v>
       </c>
     </row>
     <row r="9">
@@ -625,10 +625,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>10196.0</v>
+        <v>6396.0</v>
       </c>
       <c r="D9" t="n">
-        <v>62.14685075054604</v>
+        <v>1.7155019027552412</v>
       </c>
     </row>
     <row r="10">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6396.0</v>
+        <v>7092.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.7155019027552412</v>
+        <v>12.783980533824291</v>
       </c>
     </row>
     <row r="12">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>7092.0</v>
+        <v>10196.0</v>
       </c>
       <c r="D13" t="n">
-        <v>12.783980533824291</v>
+        <v>62.14685075054604</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>10802.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D14" t="n">
-        <v>71.78406059311477</v>
+        <v>25.49046677839925</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>7891.0</v>
+        <v>14190.0</v>
       </c>
       <c r="D15" t="n">
-        <v>25.49046677839925</v>
+        <v>125.66337898688195</v>
       </c>
     </row>
   </sheetData>
@@ -805,49 +805,49 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8327.0</v>
+        <v>6559.0</v>
       </c>
       <c r="D8" t="n">
-        <v>24.928461235241798</v>
+        <v>-1.5965200862314213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>7483.0</v>
+        <v>8327.0</v>
       </c>
       <c r="D9" t="n">
-        <v>12.266083274086032</v>
+        <v>24.928461235241798</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6559.0</v>
+        <v>7483.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.5965200862314213</v>
+        <v>12.266083274086032</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -949,114 +949,114 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>394.0</v>
+        <v>52.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-45.51498524936025</v>
+        <v>-92.8090843476313</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1523.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D9" t="n">
-        <v>110.61085651072167</v>
+        <v>95.67587784810976</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>502.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-30.58000658674834</v>
+        <v>43.81831304737396</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1040.0</v>
+        <v>394.0</v>
       </c>
       <c r="D11" t="n">
-        <v>43.81831304737396</v>
+        <v>-45.51498524936025</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>1415.0</v>
+        <v>502.0</v>
       </c>
       <c r="D12" t="n">
-        <v>95.67587784810976</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>700.0</v>
+        <v>737.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.199212371959834</v>
+        <v>1.9174006883794317</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>52.0</v>
+        <v>700.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-92.8090843476313</v>
+        <v>-3.199212371959834</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>737.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.9174006883794317</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
   </sheetData>
@@ -1155,29 +1155,29 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1523.0</v>
+        <v>124.0</v>
       </c>
       <c r="D8" t="n">
-        <v>110.61085651072167</v>
+        <v>-82.85243190589003</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>179.0</v>
+        <v>1145.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-75.24665573511544</v>
+        <v>58.338431191579986</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1191,58 +1191,58 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1145.0</v>
+        <v>179.0</v>
       </c>
       <c r="D11" t="n">
-        <v>58.338431191579986</v>
+        <v>-75.24665573511544</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>502.0</v>
+        <v>485.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-30.58000658674834</v>
+        <v>-32.93088285771503</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>124.0</v>
+        <v>502.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-82.85243190589003</v>
+        <v>-30.58000658674834</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>485.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-32.93088285771503</v>
+        <v>110.61085651072167</v>
       </c>
     </row>
   </sheetData>
@@ -1345,16 +1345,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D10" t="n">
-        <v>15.003702654937063</v>
+        <v>18.016900104411395</v>
       </c>
     </row>
     <row r="11">
@@ -1373,16 +1373,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>705.0</v>
+        <v>687.0</v>
       </c>
       <c r="D12" t="n">
-        <v>18.016900104411395</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="13">
@@ -1417,16 +1417,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>687.0</v>
+        <v>705.0</v>
       </c>
       <c r="D17" t="n">
-        <v>15.003702654937063</v>
+        <v>18.016900104411395</v>
       </c>
     </row>
     <row r="18">
@@ -1445,16 +1445,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>705.0</v>
+        <v>687.0</v>
       </c>
       <c r="D19" t="n">
-        <v>18.016900104411395</v>
+        <v>15.003702654937063</v>
       </c>
     </row>
     <row r="20">
@@ -1591,35 +1591,35 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D11" t="n">
-        <v>25.116267589116617</v>
+        <v>13.19860779732021</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D12" t="n">
-        <v>13.19860779732021</v>
+        <v>25.116267589116617</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1663,35 +1663,35 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D18" t="n">
-        <v>25.116267589116617</v>
+        <v>13.19860779732021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>2954.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D19" t="n">
-        <v>13.19860779732021</v>
+        <v>25.116267589116617</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>

--- a/JPADSandBox_v2/out/CS300_AVL/WEIGHTS/Weights.xlsx
+++ b/JPADSandBox_v2/out/CS300_AVL/WEIGHTS/Weights.xlsx
@@ -115,28 +115,28 @@
     <t>WEIGHT ESTIMATION METHODS COMPARISON</t>
   </si>
   <si>
+    <t>NICOLAI_1984</t>
+  </si>
+  <si>
+    <t>SADRAEY</t>
+  </si>
+  <si>
+    <t>KROO</t>
+  </si>
+  <si>
+    <t>ROSKAM</t>
+  </si>
+  <si>
+    <t>RAYMER</t>
+  </si>
+  <si>
+    <t>TORENBEEK_2013</t>
+  </si>
+  <si>
     <t>TORENBEEK_1976</t>
   </si>
   <si>
-    <t>SADRAEY</t>
-  </si>
-  <si>
-    <t>RAYMER</t>
-  </si>
-  <si>
-    <t>KROO</t>
-  </si>
-  <si>
     <t>JENKINSON</t>
-  </si>
-  <si>
-    <t>NICOLAI_1984</t>
-  </si>
-  <si>
-    <t>TORENBEEK_2013</t>
-  </si>
-  <si>
-    <t>ROSKAM</t>
   </si>
   <si>
     <t>TORENBEEK_1982</t>
@@ -358,7 +358,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>62876.30628779709</v>
+        <v>63801.39240103823</v>
       </c>
     </row>
     <row r="7">
@@ -369,7 +369,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>56588.675659017375</v>
+        <v>57421.25316093441</v>
       </c>
     </row>
     <row r="8">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>11633.190117226004</v>
+        <v>11804.219129958965</v>
       </c>
     </row>
     <row r="10">
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>54778.116170571084</v>
+        <v>55637.17327107927</v>
       </c>
     </row>
     <row r="11">
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>51243.116170571084</v>
+        <v>51997.17327107927</v>
       </c>
     </row>
     <row r="12">
@@ -424,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>17035.0</v>
+        <v>17640.0</v>
       </c>
     </row>
     <row r="13">
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>13500.0</v>
+        <v>14000.0</v>
       </c>
     </row>
     <row r="14">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>37743.11617057109</v>
+        <v>37997.17327107927</v>
       </c>
     </row>
     <row r="15">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>36969.622526539715</v>
+        <v>37219.05728290892</v>
       </c>
     </row>
     <row r="16">
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>314.40635303136366</v>
+        <v>319.0286971703372</v>
       </c>
     </row>
     <row r="17">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>2020.9499999999998</v>
+        <v>2095.8</v>
       </c>
     </row>
     <row r="19">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>35263.0788795711</v>
+        <v>35442.28598007928</v>
       </c>
     </row>
     <row r="20">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>20602.655422083808</v>
+        <v>20733.38979152061</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6288.127060627273</v>
+        <v>6380.573943406745</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8132.166666666666</v>
+        <v>8157.333333333332</v>
       </c>
       <c r="D3" t="n">
-        <v>29.325737032028755</v>
+        <v>27.846388204035645</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>8132.166666666666</v>
+        <v>8157.333333333332</v>
       </c>
     </row>
     <row r="6">
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>10802.0</v>
+        <v>10243.0</v>
       </c>
       <c r="D8" t="n">
-        <v>71.78406059311477</v>
+        <v>60.534147724820706</v>
       </c>
     </row>
     <row r="9">
@@ -628,7 +628,7 @@
         <v>6396.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.7155019027552412</v>
+        <v>0.24176597168341904</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6416.0</v>
+        <v>7149.0</v>
       </c>
       <c r="D10" t="n">
-        <v>2.0335616335330875</v>
+        <v>12.043212153152714</v>
       </c>
     </row>
     <row r="11">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>7092.0</v>
+        <v>14388.0</v>
       </c>
       <c r="D11" t="n">
-        <v>12.783980533824291</v>
+        <v>125.4969557224173</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>21031.0</v>
+        <v>6463.0</v>
       </c>
       <c r="D12" t="n">
-        <v>234.45570989944426</v>
+        <v>1.291828248122254</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>10196.0</v>
+        <v>7891.0</v>
       </c>
       <c r="D13" t="n">
-        <v>62.14685075054604</v>
+        <v>23.67226005043056</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>7891.0</v>
+        <v>10802.0</v>
       </c>
       <c r="D14" t="n">
-        <v>25.49046677839925</v>
+        <v>69.29511507600442</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>14190.0</v>
+        <v>21031.0</v>
       </c>
       <c r="D15" t="n">
-        <v>125.66337898688195</v>
+        <v>229.6098468027633</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6665.414684264909</v>
+        <v>6763.408380011148</v>
       </c>
     </row>
     <row r="3">
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>7112.75</v>
+        <v>7181.0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.711290098590839</v>
+        <v>6.17427776833672</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>7112.749999999999</v>
+        <v>7180.999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -805,58 +805,58 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6559.0</v>
+        <v>7561.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.5965200862314213</v>
+        <v>11.792746721402883</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>8327.0</v>
+        <v>6631.0</v>
       </c>
       <c r="D9" t="n">
-        <v>24.928461235241798</v>
+        <v>-1.9577167689958312</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>7483.0</v>
+        <v>8394.0</v>
       </c>
       <c r="D10" t="n">
-        <v>12.266083274086032</v>
+        <v>24.1090220843084</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>6082.0</v>
+        <v>6138.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.752864028732963</v>
+        <v>-9.246940963368484</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>723.1346119721363</v>
+        <v>733.7660034917756</v>
       </c>
     </row>
     <row r="3">
@@ -909,10 +909,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>795.375</v>
+        <v>796.625</v>
       </c>
       <c r="D3" t="n">
-        <v>9.989894942360628</v>
+        <v>8.56662699131563</v>
       </c>
     </row>
     <row r="4">
@@ -934,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>795.3749999999999</v>
+        <v>796.6249999999999</v>
       </c>
     </row>
     <row r="6">
@@ -949,16 +949,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>52.0</v>
+        <v>1040.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-92.8090843476313</v>
+        <v>41.734557754236</v>
       </c>
     </row>
     <row r="9">
@@ -972,21 +972,21 @@
         <v>1415.0</v>
       </c>
       <c r="D9" t="n">
-        <v>95.67587784810976</v>
+        <v>92.84076848292686</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1040.0</v>
+        <v>737.0</v>
       </c>
       <c r="D10" t="n">
-        <v>43.81831304737396</v>
+        <v>0.4407394854537826</v>
       </c>
     </row>
     <row r="11">
@@ -997,52 +997,52 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>394.0</v>
+        <v>399.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-45.51498524936025</v>
+        <v>-45.62299178467292</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>502.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-30.58000658674834</v>
+        <v>107.55935717278983</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>737.0</v>
+        <v>507.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.9174006883794317</v>
+        <v>-30.904403094809947</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>700.0</v>
+        <v>52.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.199212371959834</v>
+        <v>-92.91327211228821</v>
       </c>
     </row>
     <row r="15">
@@ -1053,10 +1053,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>1523.0</v>
+        <v>700.0</v>
       </c>
       <c r="D15" t="n">
-        <v>110.61085651072167</v>
+        <v>-4.601739973110383</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>723.1346119721363</v>
+        <v>733.7660034917756</v>
       </c>
     </row>
     <row r="3">
@@ -1109,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>672.4285714285713</v>
+        <v>673.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.011978088737747</v>
+        <v>-8.281387145576124</v>
       </c>
     </row>
     <row r="4">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>672.4285714285713</v>
+        <v>672.9999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1149,16 +1149,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>124.0</v>
+        <v>749.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-82.85243190589003</v>
+        <v>2.07613822877189</v>
       </c>
     </row>
     <row r="9">
@@ -1172,63 +1172,63 @@
         <v>1145.0</v>
       </c>
       <c r="D9" t="n">
-        <v>58.338431191579986</v>
+        <v>56.04429675826945</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>749.0</v>
+        <v>488.0</v>
       </c>
       <c r="D10" t="n">
-        <v>3.5768427620029772</v>
+        <v>-33.49378443839695</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>179.0</v>
+        <v>1523.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-75.24665573511544</v>
+        <v>107.55935717278983</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>485.0</v>
+        <v>180.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-32.93088285771503</v>
+        <v>-75.46901885022838</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>502.0</v>
+        <v>124.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.58000658674834</v>
+        <v>-83.10087965237955</v>
       </c>
     </row>
     <row r="14">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1523.0</v>
+        <v>502.0</v>
       </c>
       <c r="D14" t="n">
-        <v>110.61085651072167</v>
+        <v>-31.58581923785916</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1194.7441415191815</v>
+        <v>1212.309049247281</v>
       </c>
     </row>
     <row r="3">
@@ -1295,10 +1295,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1390.6666666666665</v>
+        <v>1390.0</v>
       </c>
       <c r="D3" t="n">
-        <v>16.398701474138132</v>
+        <v>14.657232069912094</v>
       </c>
     </row>
     <row r="4">
@@ -1320,7 +1320,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1390.6666666666663</v>
+        <v>1389.9999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -1345,16 +1345,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>705.0</v>
+        <v>687.0</v>
       </c>
       <c r="D10" t="n">
-        <v>18.016900104411395</v>
+        <v>13.337436592848357</v>
       </c>
     </row>
     <row r="11">
@@ -1368,7 +1368,7 @@
         <v>694.0</v>
       </c>
       <c r="D11" t="n">
-        <v>16.17550166306597</v>
+        <v>14.492257635279127</v>
       </c>
     </row>
     <row r="12">
@@ -1379,10 +1379,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>687.0</v>
+        <v>704.0</v>
       </c>
       <c r="D12" t="n">
-        <v>15.003702654937063</v>
+        <v>16.142001981608797</v>
       </c>
     </row>
     <row r="13">
@@ -1402,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>695.3333333333333</v>
+        <v>695.0</v>
       </c>
     </row>
     <row r="15">
@@ -1417,16 +1417,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>705.0</v>
+        <v>687.0</v>
       </c>
       <c r="D17" t="n">
-        <v>18.016900104411395</v>
+        <v>13.337436592848357</v>
       </c>
     </row>
     <row r="18">
@@ -1440,7 +1440,7 @@
         <v>694.0</v>
       </c>
       <c r="D18" t="n">
-        <v>16.17550166306597</v>
+        <v>14.492257635279127</v>
       </c>
     </row>
     <row r="19">
@@ -1451,10 +1451,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>687.0</v>
+        <v>704.0</v>
       </c>
       <c r="D19" t="n">
-        <v>15.003702654937063</v>
+        <v>16.142001981608797</v>
       </c>
     </row>
     <row r="20">
@@ -1474,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>695.3333333333333</v>
+        <v>695.0</v>
       </c>
     </row>
     <row r="22">
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5219.145460320637</v>
+        <v>5295.876373027598</v>
       </c>
     </row>
     <row r="3">
@@ -1532,10 +1532,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>6451.333333333332</v>
+        <v>6450.666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>23.60899657579186</v>
+        <v>21.80546168941039</v>
       </c>
     </row>
     <row r="4">
@@ -1557,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>6451.333333333331</v>
+        <v>6450.666666666665</v>
       </c>
     </row>
     <row r="6">
@@ -1591,44 +1591,44 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2954.0</v>
+        <v>3457.0</v>
       </c>
       <c r="D11" t="n">
-        <v>13.19860779732021</v>
+        <v>30.55440710839968</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D12" t="n">
-        <v>25.116267589116617</v>
+        <v>11.558495400119368</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3458.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.51211434093882</v>
+        <v>23.303482559712165</v>
       </c>
     </row>
     <row r="14">
@@ -1639,7 +1639,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>3225.666666666666</v>
+        <v>3225.333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -1663,44 +1663,44 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>2954.0</v>
+        <v>3457.0</v>
       </c>
       <c r="D18" t="n">
-        <v>13.19860779732021</v>
+        <v>30.55440710839968</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>3265.0</v>
+        <v>2954.0</v>
       </c>
       <c r="D19" t="n">
-        <v>25.116267589116617</v>
+        <v>11.558495400119368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>3458.0</v>
+        <v>3265.0</v>
       </c>
       <c r="D20" t="n">
-        <v>32.51211434093882</v>
+        <v>23.303482559712165</v>
       </c>
     </row>
     <row r="21">
@@ -1711,7 +1711,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>3225.666666666666</v>
+        <v>3225.333333333333</v>
       </c>
     </row>
     <row r="22">
@@ -1758,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2578.132094857182</v>
+        <v>2616.035316796765</v>
       </c>
     </row>
     <row r="3">
@@ -1769,10 +1769,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2499.2685173219097</v>
+        <v>2535.4314581872886</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.0589424681764017</v>
+        <v>-3.0811456593090853</v>
       </c>
     </row>
     <row r="4">
@@ -1794,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2499.2685173219093</v>
+        <v>2535.4314581872886</v>
       </c>
     </row>
     <row r="6">
@@ -1814,16 +1814,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>2499.2685173219097</v>
+        <v>2535.431458187289</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.0589424681764026</v>
+        <v>-3.0811456593090774</v>
       </c>
     </row>
     <row r="10">
@@ -1833,13 +1833,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>386.729549170154</v>
+        <v>391.4126375939395</v>
       </c>
     </row>
     <row r="12">
@@ -1849,13 +1849,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>2112.5389681517563</v>
+        <v>2144.01882059335</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>8551.852802453091</v>
+        <v>8677.580563033172</v>
       </c>
     </row>
     <row r="3">
@@ -1908,10 +1908,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8209.090124153976</v>
+        <v>8258.229521892012</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.00805166104818</v>
+        <v>-4.832580211673437</v>
       </c>
     </row>
     <row r="4">
@@ -1922,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>8209.090124153974</v>
+        <v>8258.22952189201</v>
       </c>
     </row>
     <row r="5">
@@ -1948,10 +1948,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>8209.090124153976</v>
+        <v>8258.229521892012</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.00805166104815</v>
+        <v>-4.832580211673409</v>
       </c>
     </row>
     <row r="9">
@@ -1972,7 +1972,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>329.5722550152342</v>
+        <v>336.84274966573867</v>
       </c>
     </row>
     <row r="12">
@@ -1994,7 +1994,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>329.57225501523413</v>
+        <v>336.8427496657386</v>
       </c>
     </row>
     <row r="14">
@@ -2058,7 +2058,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1030.8432141307385</v>
+        <v>1033.7492545113123</v>
       </c>
     </row>
     <row r="22">
@@ -2080,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>1030.8432141307383</v>
+        <v>1033.749254511312</v>
       </c>
     </row>
     <row r="24">
@@ -2101,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>528.9794736539732</v>
+        <v>531.6667122518941</v>
       </c>
     </row>
     <row r="27">
@@ -2123,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>528.9794736539731</v>
+        <v>531.666712251894</v>
       </c>
     </row>
     <row r="29">
@@ -2187,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>777.495132217799</v>
+        <v>785.0973560969437</v>
       </c>
     </row>
     <row r="37">
@@ -2209,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>777.4951322177989</v>
+        <v>785.0973560969436</v>
       </c>
     </row>
     <row r="39">
@@ -2230,7 +2230,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>3293.1360915880978</v>
+        <v>3321.8094918179895</v>
       </c>
     </row>
     <row r="42">
@@ -2252,7 +2252,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>3293.1360915880973</v>
+        <v>3321.8094918179895</v>
       </c>
     </row>
   </sheetData>
